--- a/classfiers/nano/welm/nano_welm_tanh_results.xlsx
+++ b/classfiers/nano/welm/nano_welm_tanh_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.944206008583691</v>
+        <v>0.9530516431924883</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5517241379310345</v>
+        <v>0.7058823529411764</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5905211141060197</v>
+        <v>0.8193717277486912</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.944206008583691</v>
+        <v>0.9436619718309859</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1875</v>
+        <v>0.25</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.4</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2399193548387097</v>
+        <v>0.7325507614213198</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9399141630901288</v>
+        <v>0.9528301886792453</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.375</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6674864731923267</v>
+        <v>0.8633609693877551</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9439655172413793</v>
+        <v>0.9339622641509434</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4090909090909091</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5806451612903226</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6811688311688312</v>
+        <v>0.4767722473604826</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9439655172413793</v>
+        <v>0.9198113207547169</v>
       </c>
       <c r="C6" t="n">
-        <v>0.35</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5185185185185185</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8957547169811321</v>
+        <v>0.4794110881067403</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.943251442948054</v>
+        <v>0.9406634777216759</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3181402369560264</v>
+        <v>0.3333236456637991</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4766687916181506</v>
+        <v>0.4857532730960723</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6149700980574038</v>
+        <v>0.6742933588049979</v>
       </c>
     </row>
   </sheetData>
